--- a/01 项目管理/01 项目计划/智库工作计划.xlsx
+++ b/01 项目管理/01 项目计划/智库工作计划.xlsx
@@ -198,12 +198,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,7 +231,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,6 +290,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -254,86 +360,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,42 +373,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -396,6 +389,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -420,49 +461,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,6 +527,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -487,72 +546,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,6 +646,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -671,6 +679,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -678,16 +695,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,177 +743,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1288,7 +1281,7 @@
     <col min="3" max="3" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1322,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -1373,7 +1366,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1402,7 +1395,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" ht="14.25" spans="1:5">
+    <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
@@ -1417,7 +1410,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="14.25" spans="1:5">
+    <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
@@ -1428,9 +1421,11 @@
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:5">
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
         <v>20</v>
@@ -1443,7 +1438,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" ht="14.25" spans="1:5">
+    <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
         <v>21</v>
@@ -1456,7 +1451,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" ht="14.25" spans="1:5">
+    <row r="13" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="9" t="s">
         <v>22</v>
@@ -1467,9 +1462,11 @@
       <c r="D13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:5">
+      <c r="E13" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
         <v>23</v>

--- a/01 项目管理/01 项目计划/智库工作计划.xlsx
+++ b/01 项目管理/01 项目计划/智库工作计划.xlsx
@@ -199,8 +199,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -231,6 +231,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -245,6 +314,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -253,7 +330,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,9 +338,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,86 +361,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,14 +373,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -389,6 +389,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -407,60 +491,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -479,19 +509,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,36 +546,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,17 +646,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,8 +703,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,38 +727,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,15 +743,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -751,10 +751,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -763,133 +763,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1271,7 +1271,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>14</v>
@@ -1369,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="14.25" spans="1:5">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" ht="14.25" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
@@ -1425,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" ht="14.25" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
         <v>20</v>
@@ -1463,7 +1463,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">

--- a/01 项目管理/01 项目计划/智库工作计划.xlsx
+++ b/01 项目管理/01 项目计划/智库工作计划.xlsx
@@ -198,10 +198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -231,6 +231,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -246,13 +276,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -291,6 +314,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -300,36 +337,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -361,13 +368,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -389,187 +389,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,6 +646,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -666,21 +681,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,16 +710,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,10 +751,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -763,133 +763,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1271,7 +1271,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" ht="14.25" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
         <v>21</v>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" ht="14.25" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="9" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" ht="14.25" spans="1:5">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
         <v>23</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" ht="14.25" spans="1:5">
+    <row r="17" spans="1:5">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
         <v>27</v>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" ht="14.25" spans="1:5">
+    <row r="18" spans="1:5">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>6</v>
@@ -1531,9 +1531,11 @@
       <c r="D18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:5">
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
         <v>28</v>
@@ -1546,7 +1548,7 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" ht="14.25" spans="1:5">
+    <row r="20" spans="1:5">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>29</v>
@@ -1559,7 +1561,7 @@
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" ht="14.25" spans="1:5">
+    <row r="21" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>30</v>
@@ -1570,9 +1572,11 @@
       <c r="D21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:5">
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
         <v>31</v>

--- a/01 项目管理/01 项目计划/智库工作计划.xlsx
+++ b/01 项目管理/01 项目计划/智库工作计划.xlsx
@@ -198,10 +198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -231,6 +231,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -246,55 +307,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,30 +367,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -389,6 +389,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -407,43 +461,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +497,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -473,12 +521,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -491,85 +551,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,6 +646,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -657,15 +681,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,17 +700,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,17 +743,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -751,10 +751,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -763,133 +763,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1271,7 +1271,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" ht="14.25" spans="1:5">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
         <v>27</v>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" ht="14.25" spans="1:5">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>6</v>
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" ht="14.25" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
         <v>28</v>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" ht="14.25" spans="1:5">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>29</v>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" ht="14.25" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>30</v>
@@ -1576,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" ht="14.25" spans="1:5">
       <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
         <v>31</v>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" ht="14.25" spans="1:5">
+    <row r="25" spans="1:5">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
         <v>34</v>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" ht="14.25" spans="1:5">
+    <row r="26" spans="1:5">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>6</v>
@@ -1641,9 +1641,11 @@
       <c r="D26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" ht="14.25" spans="1:5">
+      <c r="E26" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="7"/>
       <c r="B27" s="4" t="s">
         <v>30</v>
@@ -1723,7 +1725,7 @@
       </c>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" ht="14.25" spans="1:5">
+    <row r="33" spans="1:5">
       <c r="A33" s="7"/>
       <c r="B33" s="4" t="s">
         <v>6</v>
@@ -1734,9 +1736,11 @@
       <c r="D33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" ht="14.25" spans="1:5">
+      <c r="E33" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="7" t="s">
         <v>40</v>
       </c>

--- a/01 项目管理/01 项目计划/智库工作计划.xlsx
+++ b/01 项目管理/01 项目计划/智库工作计划.xlsx
@@ -198,10 +198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -413,163 +413,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,10 +751,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -766,13 +766,13 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,10 +784,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -808,28 +808,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -838,36 +838,24 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -877,19 +865,31 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1271,7 +1271,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1642,7 +1642,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="5">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1656,7 +1656,9 @@
       <c r="D27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="5">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="28" ht="26.25" spans="1:5">
       <c r="A28" s="8" t="s">
@@ -1673,7 +1675,7 @@
       </c>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" ht="14.25" spans="1:5">
+    <row r="29" spans="1:5">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
         <v>37</v>
@@ -1686,7 +1688,7 @@
       </c>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" ht="14.25" spans="1:5">
+    <row r="30" spans="1:5">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
         <v>30</v>
@@ -1697,9 +1699,11 @@
       <c r="D30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" ht="14.25" spans="1:5">
+      <c r="E30" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
         <v>38</v>
@@ -1737,7 +1741,7 @@
         <v>8</v>
       </c>
       <c r="E33" s="5">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="34" spans="1:5">

--- a/01 项目管理/01 项目计划/智库工作计划.xlsx
+++ b/01 项目管理/01 项目计划/智库工作计划.xlsx
@@ -198,10 +198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -237,6 +237,121 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -245,94 +360,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,35 +373,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -389,187 +389,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,21 +646,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -681,6 +666,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,32 +723,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,10 +751,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -763,16 +763,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,115 +781,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1271,7 +1271,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1642,7 +1642,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1657,7 +1657,7 @@
         <v>8</v>
       </c>
       <c r="E27" s="5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="28" ht="26.25" spans="1:5">
@@ -1700,7 +1700,7 @@
         <v>8</v>
       </c>
       <c r="E30" s="5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1741,7 +1741,7 @@
         <v>8</v>
       </c>
       <c r="E33" s="5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="34" spans="1:5">

--- a/01 项目管理/01 项目计划/智库工作计划.xlsx
+++ b/01 项目管理/01 项目计划/智库工作计划.xlsx
@@ -367,6 +367,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -374,9 +377,6 @@
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -713,7 +713,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -728,12 +728,12 @@
       <c r="E2" s="4">
         <v>0.9</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -746,7 +746,7 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -759,7 +759,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
@@ -772,7 +772,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
@@ -787,7 +787,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
@@ -800,7 +800,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
@@ -813,7 +813,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -830,7 +830,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -845,7 +845,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
@@ -860,7 +860,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
@@ -875,7 +875,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="7" t="s">
         <v>22</v>
       </c>
@@ -890,7 +890,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
@@ -905,7 +905,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -917,10 +917,13 @@
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
@@ -933,7 +936,7 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
@@ -943,10 +946,12 @@
       <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
@@ -961,7 +966,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
@@ -974,7 +979,7 @@
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
@@ -987,7 +992,7 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="3" t="s">
         <v>30</v>
       </c>
@@ -1002,7 +1007,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="3" t="s">
         <v>31</v>
       </c>
@@ -1015,7 +1020,7 @@
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1030,7 +1035,7 @@
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
@@ -1043,7 +1048,7 @@
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="3" t="s">
         <v>34</v>
       </c>
@@ -1056,7 +1061,7 @@
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="3" t="s">
         <v>6</v>
       </c>
@@ -1071,7 +1076,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
@@ -1086,7 +1091,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1101,7 +1106,7 @@
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="3" t="s">
         <v>37</v>
       </c>
@@ -1114,7 +1119,7 @@
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
@@ -1129,7 +1134,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="3" t="s">
         <v>38</v>
       </c>
@@ -1142,7 +1147,7 @@
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="3" t="s">
         <v>39</v>
       </c>
@@ -1155,7 +1160,7 @@
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="3" t="s">
         <v>6</v>
       </c>

--- a/01 项目管理/01 项目计划/智库工作计划.xlsx
+++ b/01 项目管理/01 项目计划/智库工作计划.xlsx
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -918,7 +918,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="4">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F15" s="9"/>
     </row>
@@ -933,7 +933,9 @@
       <c r="D16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="4">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
@@ -989,7 +991,9 @@
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="4">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
@@ -1017,7 +1021,9 @@
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">

--- a/01 项目管理/01 项目计划/智库工作计划.xlsx
+++ b/01 项目管理/01 项目计划/智库工作计划.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="46">
   <si>
     <t>大模块</t>
   </si>
@@ -201,12 +201,16 @@
     <t>还未加入手机邮箱同时登陆的前台校验</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +242,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -339,7 +350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -377,6 +388,9 @@
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -683,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -918,7 +932,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="4">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F15" s="9"/>
     </row>
@@ -934,7 +948,7 @@
         <v>8</v>
       </c>
       <c r="E16" s="4">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -978,7 +992,9 @@
       <c r="D19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
@@ -1193,7 +1209,9 @@
       <c r="D34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
@@ -1206,7 +1224,9 @@
       <c r="D35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
@@ -1219,7 +1239,9 @@
       <c r="D36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
@@ -1232,7 +1254,9 @@
       <c r="D37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="5"/>
+      <c r="E37" s="13" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1244,7 +1268,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/01 项目管理/01 项目计划/智库工作计划.xlsx
+++ b/01 项目管理/01 项目计划/智库工作计划.xlsx
@@ -381,6 +381,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -388,9 +391,6 @@
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -698,7 +698,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -727,7 +727,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -747,7 +747,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -773,7 +773,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
@@ -786,7 +786,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
@@ -801,7 +801,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
@@ -814,7 +814,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
@@ -827,7 +827,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -844,7 +844,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -859,7 +859,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
@@ -874,7 +874,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
@@ -889,7 +889,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="7" t="s">
         <v>22</v>
       </c>
@@ -904,7 +904,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
@@ -919,7 +919,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -937,7 +937,7 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
@@ -952,7 +952,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
@@ -967,7 +967,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
@@ -982,7 +982,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
@@ -997,7 +997,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
@@ -1008,11 +1008,11 @@
         <v>8</v>
       </c>
       <c r="E20" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="3" t="s">
         <v>30</v>
       </c>
@@ -1027,7 +1027,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="3" t="s">
         <v>31</v>
       </c>
@@ -1042,7 +1042,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1057,7 +1057,7 @@
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
@@ -1070,7 +1070,7 @@
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="3" t="s">
         <v>34</v>
       </c>
@@ -1083,7 +1083,7 @@
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="3" t="s">
         <v>6</v>
       </c>
@@ -1098,7 +1098,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
@@ -1113,7 +1113,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1128,7 +1128,7 @@
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="3" t="s">
         <v>37</v>
       </c>
@@ -1141,7 +1141,7 @@
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
@@ -1156,7 +1156,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="3" t="s">
         <v>38</v>
       </c>
@@ -1169,7 +1169,7 @@
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="3" t="s">
         <v>39</v>
       </c>
@@ -1182,7 +1182,7 @@
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="3" t="s">
         <v>6</v>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="D37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="10" t="s">
         <v>45</v>
       </c>
     </row>
